--- a/Study_case_creation/Setpoint_initial.xlsx
+++ b/Study_case_creation/Setpoint_initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\market-clearing-mechanisms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\market-clearing-mechanisms\Study_case_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,14 +237,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,13 +528,16 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AI25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -631,7 +644,7 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.44922341700000001</v>
       </c>
       <c r="C2">
@@ -738,7 +751,7 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.36920549600000002</v>
       </c>
       <c r="C3">
@@ -845,7 +858,7 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.30197132599999998</v>
       </c>
       <c r="C4">
@@ -952,7 +965,7 @@
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.27102747900000002</v>
       </c>
       <c r="C5">
@@ -1059,7 +1072,7 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.27102747900000002</v>
       </c>
       <c r="C6">
@@ -1166,7 +1179,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.36511350100000001</v>
       </c>
       <c r="C7">
@@ -1273,7 +1286,7 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.46866786100000002</v>
       </c>
       <c r="C8">
@@ -1380,7 +1393,7 @@
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.59764038200000003</v>
       </c>
       <c r="C9">
@@ -1487,7 +1500,7 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.67007168500000003</v>
       </c>
       <c r="C10">
@@ -1594,7 +1607,7 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.70710872199999997</v>
       </c>
       <c r="C11">
@@ -1701,7 +1714,7 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.69339904399999996</v>
       </c>
       <c r="C12">
@@ -1808,7 +1821,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.69154719200000003</v>
       </c>
       <c r="C13">
@@ -1915,7 +1928,7 @@
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.71618876899999995</v>
       </c>
       <c r="C14">
@@ -2022,7 +2035,7 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.66765233000000002</v>
       </c>
       <c r="C15">
@@ -2129,7 +2142,7 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.61911589</v>
       </c>
       <c r="C16">
@@ -2236,7 +2249,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.64005376300000005</v>
       </c>
       <c r="C17">
@@ -2343,7 +2356,7 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.70215053800000005</v>
       </c>
       <c r="C18">
@@ -2450,7 +2463,7 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.83999402599999995</v>
       </c>
       <c r="C19">
@@ -2557,7 +2570,7 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.96296296299999995</v>
       </c>
       <c r="C20">
@@ -2664,7 +2677,7 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0.97499999999999998</v>
       </c>
       <c r="C21">
@@ -2771,7 +2784,7 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.96129032299999995</v>
       </c>
       <c r="C22">
@@ -2878,7 +2891,7 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0.85274790899999997</v>
       </c>
       <c r="C23">
@@ -2985,7 +2998,7 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0.72622461199999999</v>
       </c>
       <c r="C24">
@@ -3092,7 +3105,7 @@
       <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.54002389500000003</v>
       </c>
       <c r="C25">
